--- a/biology/Médecine/Royal_Society_of_Tropical_Medicine_and_Hygiene/Royal_Society_of_Tropical_Medicine_and_Hygiene.xlsx
+++ b/biology/Médecine/Royal_Society_of_Tropical_Medicine_and_Hygiene/Royal_Society_of_Tropical_Medicine_and_Hygiene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Royal Society of Tropical Medicine and Hygiene[1], plus connue sous son acronyme RSTMH, a été fondée en 1907 par Sir James Cantlie et George Carmichael Low[2]. Sir Patrick Manson, premier président de la Société (1907-1909), a été reconnu comme « le père de la médecine tropicale » par son biographe[3]. Il passa le poste à Sir Ronald Ross (président 1909-1911), découvreur du rôle des moustiques dans la transmission du paludisme.
-Les objectifs du RSTMH sont « de promouvoir et de faire progresser l'étude, le contrôle et la prévention des maladies chez l'homme et d'autres animaux dans les régions tropicales et subtropicales, de faciliter la discussion et l'échange d'informations entre ceux qui s'intéressent aux maladies tropicales et à la santé internationale, et généralement pour promouvoir le travail de ceux qui s'intéressent à ces objectifs[4]. »
+La Royal Society of Tropical Medicine and Hygiene, plus connue sous son acronyme RSTMH, a été fondée en 1907 par Sir James Cantlie et George Carmichael Low. Sir Patrick Manson, premier président de la Société (1907-1909), a été reconnu comme « le père de la médecine tropicale » par son biographe. Il passa le poste à Sir Ronald Ross (président 1909-1911), découvreur du rôle des moustiques dans la transmission du paludisme.
+Les objectifs du RSTMH sont « de promouvoir et de faire progresser l'étude, le contrôle et la prévention des maladies chez l'homme et d'autres animaux dans les régions tropicales et subtropicales, de faciliter la discussion et l'échange d'informations entre ceux qui s'intéressent aux maladies tropicales et à la santé internationale, et généralement pour promouvoir le travail de ceux qui s'intéressent à ces objectifs. »
 En 1920, le roi George V a autorisé RSTMH à utiliser le préfixe royal. La reine Elizabeth II est la patronne de la société et la princesse royale est membre honoraire.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2011, la Société a déménagé de Manson House, 26 Portland Place, Londres, à ses locaux actuels à Northumberland House, 303-306 High Holborn, Londres, WC1V 7JZ.
 </t>
@@ -545,9 +559,11 @@
           <t>Journaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RSTMH publie deux revues à comité de lecture, Transactions of the Royal Society of Tropical Medicine and Hygiene [5] et International Health[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RSTMH publie deux revues à comité de lecture, Transactions of the Royal Society of Tropical Medicine and Hygiene  et International Health.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Distinctions et médailles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RSTMH décerne la médaille Chalmers et la médaille Donald Mackay chaque année et la médaille Manson, la médaille George MacDonald et la médaille Sir Rickard Christophers tous les trois ans[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RSTMH décerne la médaille Chalmers et la médaille Donald Mackay chaque année et la médaille Manson, la médaille George MacDonald et la médaille Sir Rickard Christophers tous les trois ans.
 Cinq médailles spéciales du centenaire ont été décernées en 1907, deux pour l'ensemble de ses réalisations et trois pour les réalisations spéciales d'un jeune de moins de 45 ans.
 </t>
         </is>
@@ -608,9 +626,11 @@
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Une liste complète des présidents[8] et leurs discours présidentiels inauguraux[9] sont disponibles sur le site Transactions.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Une liste complète des présidents et leurs discours présidentiels inauguraux sont disponibles sur le site Transactions.
 2020 - onwards Prof. Gail Davey
 2019-2020 Prof. Sarah Rowland-Jones
 2016–2019 Simon Cathcart
